--- a/Research Methods.xlsx
+++ b/Research Methods.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Summer Olympics:</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Tokyo olympics 2020</t>
   </si>
   <si>
-    <t>Vancouver Olympics 2010</t>
-  </si>
-  <si>
     <t>Sochi Olympics 2014</t>
   </si>
   <si>
@@ -52,13 +49,10 @@
     <t>23 July to 8 August 2021</t>
   </si>
   <si>
-    <t>12 February - 28 February 2010</t>
-  </si>
-  <si>
-    <t>7 February - 23 February 2014</t>
-  </si>
-  <si>
-    <t>9 February - 25 February 2018</t>
+    <t>February 7-23, 2014</t>
+  </si>
+  <si>
+    <t>February 9-25, 2018</t>
   </si>
   <si>
     <t>Commands</t>
@@ -67,13 +61,30 @@
     <t>ssh s4568966@karora.let.rug.nl 'zless ../../net/corpora/twitter2/Tweets/2012/{07/201207{27..31},08/201208{01..12}}:*.out.gz | ../../net/corpora/twitter2/tools/tweet2tab -i date text' | py word_finder.py</t>
   </si>
   <si>
-    <t>ssh s4568966@karora.let.rug.nl 'zless ../../net/corpora/twitter2/Tweets/2016/08/201608{01..21}:*.out.gz | ../../net/corpora/twitter2/tools/tweet2tab -i date text' | py word_finder.py</t>
-  </si>
-  <si>
-    <t>ssh s4568966@karora.let.rug.nl 'zless ../../net/corpora/twitter2/Tweets/2020/{07/202007{23..31},08/202008{01..08}}:*.out.gz | ../../net/corpora/twitter2/tools/tweet2tab -i date text' | py word_finder.py</t>
-  </si>
-  <si>
-    <t>ssh s4568966@karora.let.rug.nl 'zless ../../net/corpora/twitter2/Tweets/2010/02/201002{12..28}:*.out.gz | ../../net/corpora/twitter2/tools/tweet2tab -i date text' | py word_finder.py</t>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">ssh s4568966@karora.let.rug.nl 'zless ../../net/corpora/twitter2/Tweets/2016/08/201608{01..21}:*.out.gz | ../../net/corpora/twitter2/tools/tweet2tab -i date text' | py </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>word_finder.py</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">ssh s4568966@karora.let.rug.nl 'zless ../../net/corpora/twitter2/Tweets/2021/{07/202107{23..31},08/202108{01..08}}:*.out.gz | ../../net/corpora/twitter2/tools/tweet2tab -i date text' | py </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>word_finder.py</t>
+    </r>
   </si>
   <si>
     <t>ssh s4568966@karora.let.rug.nl 'zless ../../net/corpora/twitter2/Tweets/2014/02/201402{07..23}:*.out.gz | ../../net/corpora/twitter2/tools/tweet2tab -i date text' | py word_finder.py</t>
@@ -85,20 +96,50 @@
     <t>Gold</t>
   </si>
   <si>
-    <t>Does not exist</t>
-  </si>
-  <si>
     <t>Silver</t>
   </si>
   <si>
     <t>Bronze</t>
+  </si>
+  <si>
+    <t>A year later</t>
+  </si>
+  <si>
+    <t>27 July to 12 August 2013</t>
+  </si>
+  <si>
+    <t>August 5–21, 2017</t>
+  </si>
+  <si>
+    <t>23 July to 8 August 2022</t>
+  </si>
+  <si>
+    <t>February 7-23, 2015</t>
+  </si>
+  <si>
+    <t>February 9-25, 2019</t>
+  </si>
+  <si>
+    <t>ssh s4568966@karora.let.rug.nl 'zless ../../net/corpora/twitter2/Tweets/2013/{07/201307{27..31},08/201308{01..12}}:*.out.gz | ../../net/corpora/twitter2/tools/tweet2tab -i date text' | py word_finder.py</t>
+  </si>
+  <si>
+    <t>ssh s4568966@karora.let.rug.nl 'zless ../../net/corpora/twitter2/Tweets/2017/08/201708{01..21}:*.out.gz | ../../net/corpora/twitter2/tools/tweet2tab -i date text' | py word_finder.py</t>
+  </si>
+  <si>
+    <t>ssh s4568966@karora.let.rug.nl 'zless ../../net/corpora/twitter2/Tweets/2022/{07/202207{23..31},08/202208{01..08}}:*.out.gz | ../../net/corpora/twitter2/tools/tweet2tab -i date text' | py word_finder.py</t>
+  </si>
+  <si>
+    <t>ssh s4568966@karora.let.rug.nl 'zless ../../net/corpora/twitter2/Tweets/2015/02/201502{07..23}:*.out.gz | ../../net/corpora/twitter2/tools/tweet2tab -i date text' | py word_finder.py</t>
+  </si>
+  <si>
+    <t>ssh s4568966@karora.let.rug.nl 'zless ../../net/corpora/twitter2/Tweets/2019/02/201902{09..25}:*.out.gz | ../../net/corpora/twitter2/tools/tweet2tab -i date text' | py word_finder.py</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -110,13 +151,23 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -125,11 +176,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -382,60 +439,51 @@
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>10806.0</v>
@@ -443,22 +491,19 @@
       <c r="C6" s="1">
         <v>554.0</v>
       </c>
-      <c r="D6" s="1">
-        <v>523.0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
+      <c r="D6" s="3">
+        <v>1185.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>703.0</v>
       </c>
       <c r="F6" s="1">
-        <v>703.0</v>
-      </c>
-      <c r="G6" s="1">
         <v>521.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <v>2047.0</v>
@@ -466,19 +511,19 @@
       <c r="C7" s="1">
         <v>239.0</v>
       </c>
-      <c r="D7" s="1">
-        <v>245.0</v>
+      <c r="D7" s="3">
+        <v>343.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>339.0</v>
       </c>
       <c r="F7" s="1">
-        <v>339.0</v>
-      </c>
-      <c r="G7" s="1">
         <v>112.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>2027.0</v>
@@ -486,17 +531,126 @@
       <c r="C8" s="1">
         <v>226.0</v>
       </c>
-      <c r="D8" s="1">
-        <v>21.0</v>
+      <c r="D8" s="3">
+        <v>603.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>450.0</v>
       </c>
       <c r="F8" s="1">
-        <v>450.0</v>
-      </c>
-      <c r="G8" s="1">
         <v>96.0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3182.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>638.0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>673.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>480.0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>563.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1094.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>135.0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>119.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1">
+        <v>307.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>209.0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C5"/>
+    <hyperlink r:id="rId2" ref="D5"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>